--- a/prompts/prompt engineering techniques.xlsx
+++ b/prompts/prompt engineering techniques.xlsx
@@ -4,18 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Prompt Technique</t>
   </si>
@@ -153,138 +165,12 @@
   </si>
   <si>
     <t>"Explain the primary reasons for..."</t>
-  </si>
-  <si>
-    <t>Tweet</t>
-  </si>
-  <si>
-    <t>Emotions Expressed</t>
-  </si>
-  <si>
-    <t>Embracing solar power for a brighter future! 🌞🔋 #SolarEnergy #CleanTech</t>
-  </si>
-  <si>
-    <t>Hope, optimism</t>
-  </si>
-  <si>
-    <t>Wind turbines spinning towards a sustainable tomorrow! 🌬️💨 #WindPower #Renewables</t>
-  </si>
-  <si>
-    <t>Progress, movement</t>
-  </si>
-  <si>
-    <t>Let's harness the power of the sun to light up our world! ☀️🌍 #SolarPower #CleanEnergy</t>
-  </si>
-  <si>
-    <t>Innovation, global impact</t>
-  </si>
-  <si>
-    <t>Investing in wind energy for a greener planet! 🌱💨 #WindEnergy #ClimateAction</t>
-  </si>
-  <si>
-    <t>Sustainability, action</t>
-  </si>
-  <si>
-    <t>From rooftops to farms, solar panels are transforming energy use! 🏠🌞 #SolarPanels #RenewableEnergy</t>
-  </si>
-  <si>
-    <t>Adaptation, transformation</t>
-  </si>
-  <si>
-    <t>Hydropower: flowing towards a cleaner future! 🌊💧 #Hydropower #GreenEnergy</t>
-  </si>
-  <si>
-    <t>Fluidity, sustainability</t>
-  </si>
-  <si>
-    <t>Innovating with geothermal energy to heat up sustainability! 🌋🔥 #Geothermal #Renewables</t>
-  </si>
-  <si>
-    <t>Innovation, efficiency</t>
-  </si>
-  <si>
-    <t>Biomass energy: turning waste into renewable power! ♻️🌱 #Biomass #CleanTech</t>
-  </si>
-  <si>
-    <t>Recycling, efficiency</t>
-  </si>
-  <si>
-    <t>Community solar projects: powering neighborhoods with sunshine! ☀️🏘️ #CommunitySolar #RenewableEnergy</t>
-  </si>
-  <si>
-    <t>Community, local impact</t>
-  </si>
-  <si>
-    <t>Wave energy: riding the waves towards clean power! 🌊⚡️ #WaveEnergy #Renewables</t>
-  </si>
-  <si>
-    <t>Dynamic, renewable power</t>
-  </si>
-  <si>
-    <t>Solar farms blooming with clean energy possibilities! 🌻🌞 #SolarFarms #CleanEnergy</t>
-  </si>
-  <si>
-    <t>Growth, potential</t>
-  </si>
-  <si>
-    <t>Wind farms: where sustainability meets innovation! 🌿💨 #WindFarms #GreenTech</t>
-  </si>
-  <si>
-    <t>Innovation, environmental impact</t>
-  </si>
-  <si>
-    <t>Let's light up the world with renewable energy solutions! 💡🌍 #RenewableEnergy #Sustainability</t>
-  </si>
-  <si>
-    <t>Illumination, global impact</t>
-  </si>
-  <si>
-    <t>Tidal energy: harnessing the power of the oceans! 🌊🔄 #TidalEnergy #CleanEnergy</t>
-  </si>
-  <si>
-    <t>Power, natural forces</t>
-  </si>
-  <si>
-    <t>Embracing clean energy technologies for a healthier planet! 🌱💚 #CleanEnergy #Renewables</t>
-  </si>
-  <si>
-    <t>Health, environmental awareness</t>
-  </si>
-  <si>
-    <t>Solar power: capturing the energy of the sun, one panel at a time! 🌞🔆 #SolarPower #CleanTech</t>
-  </si>
-  <si>
-    <t>Efficiency, solar energy</t>
-  </si>
-  <si>
-    <t>Wind turbines: spinning towards a sustainable future! 🌬️💚 #WindTurbines #Renewables</t>
-  </si>
-  <si>
-    <t>Progress, sustainability</t>
-  </si>
-  <si>
-    <t>Biomass energy: fueling a cleaner tomorrow! ♻️🌿 #BiomassEnergy #Sustainability</t>
-  </si>
-  <si>
-    <t>Renewable resources, efficiency</t>
-  </si>
-  <si>
-    <t>Geothermal energy: tapping into Earth's renewable heat! 🌍🔥 #Geothermal #RenewableEnergy</t>
-  </si>
-  <si>
-    <t>Natural resources, sustainability</t>
-  </si>
-  <si>
-    <t>Hydropower: flowing towards a greener future! 🌊💧 #Hydropower #CleanEnergy</t>
-  </si>
-  <si>
-    <t>Flow, sustainability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -915,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,9 +809,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1463,8 +1346,8 @@
   <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="18" outlineLevelCol="3"/>
@@ -1487,101 +1370,101 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1589,246 +1472,58 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="102.777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
